--- a/Manuscript/Tables/SupTable1_ValidationSampleDescription.xlsx
+++ b/Manuscript/Tables/SupTable1_ValidationSampleDescription.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie White\Box\MyFiles\MyResearch\RemappingValidation\Manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie White\Box\MyFiles\MyResearch\RemappingValidation\Manuscript\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{261ABAE3-DF13-4A63-8464-41E92FF08849}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0A6EE2E0-F6A1-4ED3-BB12-18F216239185}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7540" xr2:uid="{681B5A02-D890-4A7C-A1C5-DB69211637B5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="6620" xr2:uid="{681B5A02-D890-4A7C-A1C5-DB69211637B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D819FA38-129B-4CE8-962A-587A1A63A27B}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1424,6 +1424,20 @@
         <v>18</v>
       </c>
     </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C43" s="1">
+        <f>AVERAGE(C2:C42)</f>
+        <v>32.780487804878049</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" ref="D43:E43" si="0">AVERAGE(D2:D42)</f>
+        <v>167.13439024390243</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="0"/>
+        <v>67.620302328048766</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F43" xr:uid="{33FE3983-07CA-481C-A636-32CFF4735C6C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
